--- a/ESTOQUE VG.xlsx
+++ b/ESTOQUE VG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\GitHub\appiveco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02318DAF-A2FE-4125-A23D-8AEA813315DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C184CF39-4509-4ABD-8E52-B915FBDE6099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{9D410868-8077-4D3C-BBE6-98234956D0C2}"/>
   </bookViews>
@@ -796,16 +796,20 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="191" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">

--- a/ESTOQUE VG.xlsx
+++ b/ESTOQUE VG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\GitHub\appiveco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C184CF39-4509-4ABD-8E52-B915FBDE6099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E94FEB-F0C8-4749-B655-3DE85F05C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{9D410868-8077-4D3C-BBE6-98234956D0C2}"/>
   </bookViews>
@@ -194,10 +194,10 @@
     <t>PESADO</t>
   </si>
   <si>
-    <t>BÔNUS</t>
-  </si>
-  <si>
     <t>SEGMENTO</t>
+  </si>
+  <si>
+    <t>DIAS ESTOQUE</t>
   </si>
 </sst>
 </file>
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -284,48 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -337,15 +298,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -354,23 +309,11 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -796,20 +739,15 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="191" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="194.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
@@ -819,49 +757,49 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
         <v>43</v>
       </c>
       <c r="I1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>220997.84</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
+      </c>
+      <c r="G2">
+        <v>290</v>
       </c>
       <c r="H2" t="s">
         <v>44</v>
@@ -871,26 +809,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>230071.11000000002</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>4</v>
+      </c>
+      <c r="G3">
+        <v>290</v>
       </c>
       <c r="H3" t="s">
         <v>44</v>
@@ -900,26 +838,26 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>230071.11000000002</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
+      </c>
+      <c r="G4">
+        <v>290</v>
       </c>
       <c r="H4" t="s">
         <v>44</v>
@@ -929,23 +867,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>249555.65</v>
       </c>
-      <c r="E5" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>198</v>
       </c>
       <c r="H5" t="s">
         <v>44</v>
@@ -955,26 +893,26 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>315278.86</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>3</v>
+      </c>
+      <c r="G6">
+        <v>350</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -984,23 +922,23 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>310288.37</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>10</v>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
       </c>
       <c r="H7" t="s">
         <v>45</v>
@@ -1010,26 +948,26 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>283705.67</v>
       </c>
-      <c r="E8" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>3</v>
+      </c>
+      <c r="G8">
+        <v>665</v>
       </c>
       <c r="H8" t="s">
         <v>44</v>
@@ -1039,26 +977,26 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>303112.17</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s">
         <v>21</v>
+      </c>
+      <c r="G9">
+        <v>258</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -1068,21 +1006,23 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>309412.21000000002</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>136</v>
       </c>
       <c r="H10" t="s">
         <v>46</v>
@@ -1092,89 +1032,95 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>309144</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>106</v>
       </c>
       <c r="I11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>309144</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>106</v>
       </c>
       <c r="I12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>309144</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="6" t="s">
-        <v>10</v>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>106</v>
       </c>
       <c r="I13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>89524.46</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>455361.80000000005</v>
       </c>
-      <c r="E14" s="3">
-        <v>30000</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>24</v>
+      </c>
+      <c r="G14">
+        <v>503</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
@@ -1184,47 +1130,49 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="B15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>382274.07</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6" t="s">
-        <v>10</v>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>139</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>484553.48</v>
       </c>
-      <c r="E16" s="3">
-        <v>15000</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>4</v>
+      </c>
+      <c r="G16">
+        <v>322</v>
       </c>
       <c r="H16" t="s">
         <v>44</v>
@@ -1234,21 +1182,23 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
         <v>432273.37999999995</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6" t="s">
-        <v>10</v>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>139</v>
       </c>
       <c r="H17" t="s">
         <v>46</v>
@@ -1258,26 +1208,26 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="B18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
         <v>419694.12</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>21</v>
+      </c>
+      <c r="G18">
+        <v>266</v>
       </c>
       <c r="H18" t="s">
         <v>44</v>
@@ -1287,26 +1237,26 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>460865.16000000003</v>
       </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>30</v>
+      </c>
+      <c r="G19">
+        <v>258</v>
       </c>
       <c r="H19" t="s">
         <v>44</v>
@@ -1316,23 +1266,23 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>421586.29</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>10</v>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>198</v>
       </c>
       <c r="H20" t="s">
         <v>44</v>
@@ -1342,92 +1292,92 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>518483.38999999996</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>10</v>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>77</v>
       </c>
       <c r="I21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>472304.61</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
       </c>
       <c r="I22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
         <v>472304.61</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>10</v>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>23</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>477804.26</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>22</v>
       </c>
       <c r="H24" t="s">
         <v>45</v>
@@ -1437,23 +1387,23 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>470764.99</v>
       </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>46</v>
@@ -1463,23 +1413,23 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="B26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>470764.99</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
       </c>
       <c r="H26" t="s">
         <v>46</v>
@@ -1489,23 +1439,23 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
         <v>470764.99</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>46</v>
@@ -1515,26 +1465,26 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="B28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>727824.71000000008</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>24</v>
+      </c>
+      <c r="G28">
+        <v>197</v>
       </c>
       <c r="H28" t="s">
         <v>44</v>
@@ -1544,231 +1494,253 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="B29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>768304.98</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="11" t="s">
+      <c r="E29" t="s">
         <v>36</v>
+      </c>
+      <c r="G29">
+        <v>106</v>
       </c>
       <c r="I29" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
+      <c r="B30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>768304.98</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="11" t="s">
+      <c r="E30" t="s">
         <v>37</v>
+      </c>
+      <c r="G30">
+        <v>105</v>
       </c>
       <c r="I30" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>768304.98</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="11" t="s">
+      <c r="E31" t="s">
         <v>37</v>
+      </c>
+      <c r="G31">
+        <v>105</v>
       </c>
       <c r="I31" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5">
+      <c r="B32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
         <v>763751.72</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="6" t="s">
-        <v>10</v>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>76</v>
       </c>
       <c r="I32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3">
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>738221.01</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>55</v>
       </c>
       <c r="I33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="3">
-        <v>0</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
         <v>738221.01</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="7" t="s">
-        <v>10</v>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>55</v>
       </c>
       <c r="I34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>738221.01</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="7" t="s">
-        <v>10</v>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>55</v>
       </c>
       <c r="I35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="3">
-        <v>0</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>742814.38</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="7" t="s">
+      <c r="E36" t="s">
         <v>39</v>
+      </c>
+      <c r="G36">
+        <v>55</v>
       </c>
       <c r="I36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="B37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <v>742814.38</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="7" t="s">
+      <c r="E37" t="s">
         <v>39</v>
+      </c>
+      <c r="G37">
+        <v>55</v>
       </c>
       <c r="I37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="3">
-        <v>0</v>
-      </c>
-      <c r="D38" s="10">
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>794981.42</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="6" t="s">
+      <c r="E38" t="s">
         <v>39</v>
+      </c>
+      <c r="G38">
+        <v>106</v>
       </c>
       <c r="I38" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="3">
-        <v>0</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
         <v>794981.42</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="6" t="s">
+      <c r="E39" t="s">
         <v>41</v>
+      </c>
+      <c r="G39">
+        <v>106</v>
       </c>
       <c r="H39" t="s">
         <v>45</v>
@@ -1778,118 +1750,121 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="10">
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>794981.42</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="6" t="s">
+      <c r="E40" t="s">
         <v>20</v>
+      </c>
+      <c r="G40">
+        <v>106</v>
       </c>
       <c r="I40" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
         <v>794981.42</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="6" t="s">
+      <c r="E41" t="s">
         <v>42</v>
+      </c>
+      <c r="G41">
+        <v>106</v>
       </c>
       <c r="I41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="8">
-        <v>0</v>
-      </c>
-      <c r="D42" s="10">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>794981.42</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="11" t="s">
+      <c r="E42" t="s">
         <v>42</v>
+      </c>
+      <c r="G42">
+        <v>106</v>
       </c>
       <c r="I42" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="8">
-        <v>0</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
         <v>794981.42</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="11" t="s">
+      <c r="E43" t="s">
         <v>42</v>
+      </c>
+      <c r="G43">
+        <v>106</v>
       </c>
       <c r="I43" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F43">
-    <cfRule type="expression" dxfId="6" priority="50">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="QUITADO"</formula>
+  <conditionalFormatting sqref="A2:B43">
+    <cfRule type="expression" dxfId="6" priority="71">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="QUITADO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="51">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="LICITAÇÃO"</formula>
+    <cfRule type="expression" dxfId="5" priority="72">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="LICITAÇÃO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="52">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="MAIS QUE 150 DIAS"</formula>
+    <cfRule type="expression" dxfId="4" priority="73">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="MAIS QUE 150 DIAS"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="53">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="VEIC. COM IMPLEMENTO"</formula>
+    <cfRule type="expression" dxfId="3" priority="74">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="VEIC. COM IMPLEMENTO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="54">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="VEIC. COM IMPLEMENTO"</formula>
+    <cfRule type="expression" dxfId="2" priority="75">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="VEIC. COM IMPLEMENTO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="55">
-      <formula>INDEX($A$3:$F$44,ROW()-2,15)="EVENTO"</formula>
+    <cfRule type="expression" dxfId="1" priority="76">
+      <formula>INDEX($A$3:$B$44,ROW()-2,15)="EVENTO"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="56">
-      <formula>AND(INDEX($A$1:$E$29,ROW(),15)="",INDEX($A$1:$E$29,ROW(),13)&lt;&gt;"",(_xlfn.DAYS(TODAY(),INDEX($A$1:$E$29,ROW(),13))&gt;150))</formula>
+    <cfRule type="expression" dxfId="0" priority="77">
+      <formula>AND(INDEX($A$1:$B$29,ROW(),15)="",INDEX($A$1:$B$29,ROW(),13)&lt;&gt;"",(_xlfn.DAYS(TODAY(),INDEX($A$1:$B$29,ROW(),13))&gt;150))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F43" xr:uid="{3E1766B8-9E8D-4F61-A8D7-B16099688B1B}">
-      <formula1>$C$47:$C$53</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>